--- a/documentation-software2/requerimientos.xlsx
+++ b/documentation-software2/requerimientos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\korez\OneDrive\Documents\git\ProyectoTrivago\documentation-software2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A944025-7507-4F69-97F4-6DAD222CCF85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDFB68CC-3C24-49BA-871A-5477998A70D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{C3DF0614-F6F4-400B-92D1-0B7C012A4BD6}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="109">
   <si>
     <t>Nombre</t>
   </si>
@@ -240,9 +240,6 @@
     <t>Sistema Notificaciones para Administradores</t>
   </si>
   <si>
-    <t xml:space="preserve">Añadir Habitaciones </t>
-  </si>
-  <si>
     <t>Filtrar Cuartos</t>
   </si>
   <si>
@@ -258,9 +255,6 @@
     <t>Peticiones de Reservas</t>
   </si>
   <si>
-    <t>Mostrar y gestionar</t>
-  </si>
-  <si>
     <t>Status de Reservas</t>
   </si>
   <si>
@@ -273,9 +267,6 @@
     <t>Reportes</t>
   </si>
   <si>
-    <t>Idioma</t>
-  </si>
-  <si>
     <t>Escalabilidad</t>
   </si>
   <si>
@@ -297,7 +288,79 @@
     <t>Interfaz</t>
   </si>
   <si>
-    <t>Intuitiva</t>
+    <t>Adaptabilidad</t>
+  </si>
+  <si>
+    <t>El sistema puede traducir y convertir la moneda según sea la locación.</t>
+  </si>
+  <si>
+    <t>El sistema permite que los clientes se registren en el sistema.</t>
+  </si>
+  <si>
+    <t>El sistema debe ser capaz de funcionar independientemente del crecimiento de la demanda.</t>
+  </si>
+  <si>
+    <t>El sistema permite al usuario acceder a funcionales propias de un usuario registrado (reservar, ver reservas, hacer reviews, entrar al panel de administrador y etc).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gestionar Habitaciones </t>
+  </si>
+  <si>
+    <t>El sistema debe permitir a los administradores añadir, modificar y eliminar las habitaciones de su respectivo hotel.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El sistema debe permitir a los usuarios buscar hoteles por su nombre, locación, rango de precio y rating. </t>
+  </si>
+  <si>
+    <t>El sistema debe evitar el robo o secuestro de datos, brechas de seguridad u otras acciones maliciosas que ponga en peligro la integridad de los usuarios y desarrolladores.</t>
+  </si>
+  <si>
+    <t>El sistema debe tener un buen rendimiento al procesar solicitudes de usuarios.</t>
+  </si>
+  <si>
+    <t>El sistema debe permitir a los usuarios buscar cuartos de hoteles por su precio, tipo y disponibilidad.</t>
+  </si>
+  <si>
+    <t>El sistema debe poder comunicar procesos y resultados de interés para el cliente a través de distintos medios (como vía email).</t>
+  </si>
+  <si>
+    <t>El sistema debe poder informar acciones relacionadas a la gestión de cuartos de hoteles a los administradores.</t>
+  </si>
+  <si>
+    <t>El sistema debe permitir a los usuarios hacer reservaciones de cuartos y esperar la aprobación del respectivo administrador.</t>
+  </si>
+  <si>
+    <t>El sistema debe poder bloquear una habitación que ha sido reservada hasta que sea cancelada, finalizada o rechazada. Esto para evitar la sobrereserva.</t>
+  </si>
+  <si>
+    <t>El sistema debe ser capaz de funcionar en distintos dispositivos electronicos o de diferente software.</t>
+  </si>
+  <si>
+    <t>El sistema debe crear peticiones de reservas al momento de que un usuario quiera hacer una reservación; dichas peticiones deben ser aceptadas o rechazadas por el administrador respectivo.</t>
+  </si>
+  <si>
+    <t>El sistema debe permitir su acceso y uso para cualquier usuario, independientemente de sus capacidades.</t>
+  </si>
+  <si>
+    <t>El sistema permite al usuario ver y gestionar el status de las reservas que este haya creado.</t>
+  </si>
+  <si>
+    <t>El sistema debe tener facilidad para ser modificado o actualizado.</t>
+  </si>
+  <si>
+    <t>El sistema debe permitir a los usuarios crear y eliminar reviews hechas a un hotel; a sí mismo, el sistema debe mostrar todas las reviews dentro del perfil del hotel en especifico.</t>
+  </si>
+  <si>
+    <t>El sistema debe estar operativo y en funcionamiento continuo en cualquier momento dado.</t>
+  </si>
+  <si>
+    <t>El sistema debe permitir a los administradores ver las reservesas activas y pasadas hechas a su respectivo hotel.</t>
+  </si>
+  <si>
+    <t>El sistema debe tener un entorno intuitivo y sencillo que permita controlar la comunicación entre el usuario y el sistema.</t>
+  </si>
+  <si>
+    <t>El sistema debe generar reportes con las estadísticas de interés para los administradores (habitaciones más reservadas, reservas más duraderas, porcentaje de habitaciones ocupadas y etc).</t>
   </si>
 </sst>
 </file>
@@ -472,35 +535,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -520,6 +565,31 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -837,8 +907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE47C0A3-CE77-42E7-AB32-D8CA496FD6FF}">
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -851,236 +921,272 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="7"/>
-      <c r="G1" s="11" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="20"/>
+      <c r="G1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="12"/>
-      <c r="I1" s="13"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="23"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="16" t="s">
+      <c r="I2" s="10" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="G3" s="2" t="s">
+      <c r="C3" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="G3" s="24" t="s">
         <v>6</v>
       </c>
       <c r="H3" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="I3" s="18"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+      <c r="I3" s="25" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="18"/>
+      <c r="C4" s="25" t="s">
+        <v>88</v>
+      </c>
       <c r="G4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H4" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="I4" s="18"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H4" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="I4" s="25" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="C5" s="18"/>
+      <c r="B5" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>90</v>
+      </c>
       <c r="G5" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="17" t="s">
+      <c r="H5" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="18"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I5" s="25" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="C6" s="18"/>
+      <c r="B6" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>91</v>
+      </c>
       <c r="G6" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="H6" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="I6" s="18"/>
-    </row>
-    <row r="7" spans="1:9" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="H6" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="I6" s="25" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="C7" s="18"/>
+      <c r="B7" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>94</v>
+      </c>
       <c r="G7" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="H7" s="22" t="s">
+      <c r="H7" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="I7" s="18"/>
-    </row>
-    <row r="8" spans="1:9" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="I7" s="25" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="C8" s="18"/>
+      <c r="B8" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>97</v>
+      </c>
       <c r="G8" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="H8" s="22" t="s">
+      <c r="H8" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="I8" s="18"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I8" s="25" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="C9" s="18"/>
+      <c r="B9" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>98</v>
+      </c>
       <c r="G9" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H9" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="I9" s="18"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H9" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="I9" s="25" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="C10" s="18"/>
+      <c r="B10" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>100</v>
+      </c>
       <c r="G10" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H10" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="I10" s="18"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H10" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="I10" s="25" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>74</v>
+      <c r="B11" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>102</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H11" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="I11" s="18"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H11" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="I11" s="26" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="48" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="C12" s="18" t="s">
+      <c r="B12" s="11" t="s">
         <v>74</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>104</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="H12" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="I12" s="18"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H12" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="I12" s="25" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="36" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>74</v>
+      <c r="B13" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>106</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="H13" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="I13" s="18" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H13" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="I13" s="25" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>74</v>
+      <c r="B14" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>108</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="H14" s="17"/>
-      <c r="I14" s="18"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="12"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
@@ -1091,200 +1197,200 @@
       <c r="G15" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="H15" s="17"/>
-      <c r="I15" s="18"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="12"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="17"/>
-      <c r="C16" s="18"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="12"/>
       <c r="G16" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="H16" s="17"/>
-      <c r="I16" s="18"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="12"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="17"/>
-      <c r="C17" s="18"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="12"/>
       <c r="G17" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="H17" s="17"/>
-      <c r="I17" s="18"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="12"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="17"/>
-      <c r="C18" s="18"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="12"/>
       <c r="G18" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="H18" s="17"/>
-      <c r="I18" s="18"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="12"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="17"/>
-      <c r="C19" s="18"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="12"/>
       <c r="G19" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="H19" s="17"/>
-      <c r="I19" s="18"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="12"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="17"/>
-      <c r="C20" s="18"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="12"/>
       <c r="G20" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="H20" s="17"/>
-      <c r="I20" s="18"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="12"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="17"/>
-      <c r="C21" s="18"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="12"/>
       <c r="G21" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H21" s="17"/>
-      <c r="I21" s="18"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="12"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="17"/>
-      <c r="C22" s="18"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="12"/>
       <c r="G22" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="H22" s="17"/>
-      <c r="I22" s="18"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="12"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="23"/>
-      <c r="C23" s="18"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="12"/>
       <c r="G23" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="H23" s="17"/>
-      <c r="I23" s="18"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="12"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="23"/>
-      <c r="C24" s="18"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="12"/>
       <c r="G24" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="H24" s="17"/>
-      <c r="I24" s="18"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="12"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="23"/>
-      <c r="C25" s="18"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="12"/>
       <c r="G25" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="H25" s="17"/>
-      <c r="I25" s="18"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="12"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B26" s="17"/>
-      <c r="C26" s="18"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="12"/>
       <c r="G26" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H26" s="17"/>
-      <c r="I26" s="18"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="12"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B27" s="17"/>
-      <c r="C27" s="18"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="12"/>
       <c r="G27" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="H27" s="17"/>
-      <c r="I27" s="18"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="12"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="23"/>
-      <c r="C28" s="18"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="12"/>
       <c r="G28" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="H28" s="17"/>
-      <c r="I28" s="18"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="12"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B29" s="23"/>
-      <c r="C29" s="18"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="12"/>
       <c r="G29" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="H29" s="17"/>
-      <c r="I29" s="18"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="12"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B30" s="17"/>
-      <c r="C30" s="18"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="12"/>
       <c r="G30" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H30" s="17"/>
-      <c r="I30" s="18"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="12"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B31" s="20"/>
-      <c r="C31" s="21"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="15"/>
       <c r="G31" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="H31" s="20"/>
-      <c r="I31" s="21"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="15"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
